--- a/TestList/7.0GSSZstudy.xlsx
+++ b/TestList/7.0GSSZstudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="8115"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>序号
 （id）</t>
@@ -87,7 +87,7 @@
     <t>//input[contains(@name,'passWord')]</t>
   </si>
   <si>
-    <t>xy000000</t>
+    <t>xy123456</t>
   </si>
   <si>
     <t>click code</t>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>//a[contains(@ng-click,'events.chooseLearned(2)')]</t>
-  </si>
-  <si>
-    <t>click play button</t>
-  </si>
-  <si>
-    <t>//td[contains(@class,'op')]/a</t>
   </si>
   <si>
     <t>play</t>
@@ -167,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -191,90 +185,99 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,10 +290,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,25 +312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,9 +554,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +592,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,27 +619,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,131 +637,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1456,12 +1450,12 @@
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1476,50 +1470,30 @@
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18:D25">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C28">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27">
       <formula1>"URL、Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D65525">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D65524">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
